--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3606919.985045008</v>
+        <v>3606404.355430651</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2104816.956126888</v>
+        <v>2104816.956126889</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197849</v>
+        <v>826053.9034197831</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>54.61063087150634</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170.6239411635826</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.232244028586</v>
+        <v>67.60461124345488</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>161.0751034582243</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>341.660432693059</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.983287058031</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>69.22983856563738</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1201,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.8011305986838</v>
+        <v>43.62623111439413</v>
       </c>
     </row>
     <row r="9">
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>179.4080122938798</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>150.0199154242421</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>107.7243741354677</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1615,19 +1615,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>64.77060153394461</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>38.65591760717425</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1861,10 +1861,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1912,7 +1912,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658094</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>268.139799385579</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>188.0533370557173</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497624</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2772,13 +2772,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.8664956855789</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2812,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>28.60476511161668</v>
       </c>
       <c r="W29" t="n">
         <v>273.2977702070789</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
         <v>282.3655247697376</v>
@@ -3046,10 +3046,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
         <v>236.929075365811</v>
@@ -3097,7 +3097,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3520,10 +3520,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3571,7 +3571,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911202</v>
+        <v>322.2802739911199</v>
       </c>
       <c r="C41" t="n">
-        <v>315.034222218936</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3771932323362</v>
+        <v>307.3771932323359</v>
       </c>
       <c r="E41" t="n">
-        <v>128.261648031958</v>
+        <v>218.1732845763067</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221593</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>246.6326956660115</v>
+        <v>246.6326956660112</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529708</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.6388952451972</v>
+        <v>90.63889524519695</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530148</v>
+        <v>147.0560721530145</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065846</v>
+        <v>178.9856780065844</v>
       </c>
       <c r="V41" t="n">
-        <v>264.476216940354</v>
+        <v>264.4762169403538</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182327</v>
+        <v>293.0795204182324</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>311.3485547531108</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.3162777254421</v>
+        <v>318.3162777254419</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412255</v>
+        <v>109.1464142412253</v>
       </c>
       <c r="C43" t="n">
-        <v>38.66046389566122</v>
+        <v>94.29354249150768</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334766</v>
+        <v>79.86725770334741</v>
       </c>
       <c r="E43" t="n">
-        <v>79.79369975622677</v>
+        <v>79.79369975622652</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599404</v>
+        <v>81.54315117599378</v>
       </c>
       <c r="G43" t="n">
-        <v>92.36198909838618</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495822</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613015</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>126.5783987161134</v>
+        <v>126.5783987161131</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>208.3748795773551</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642213</v>
+        <v>189.110027464221</v>
       </c>
       <c r="W43" t="n">
-        <v>206.2875737849714</v>
+        <v>171.9098028212484</v>
       </c>
       <c r="X43" t="n">
-        <v>157.529994731684</v>
+        <v>157.5299947316837</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083603</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911202</v>
+        <v>322.2802739911199</v>
       </c>
       <c r="C44" t="n">
-        <v>315.034222218936</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D44" t="n">
-        <v>191.4561328157776</v>
+        <v>307.377193232336</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>324.3481653714579</v>
       </c>
       <c r="F44" t="n">
-        <v>338.5159698221593</v>
+        <v>338.515969822159</v>
       </c>
       <c r="G44" t="n">
-        <v>334.8216036937141</v>
+        <v>334.8216036937139</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660115</v>
+        <v>246.6326956660113</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529708</v>
+        <v>62.74422147529685</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530148</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065846</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>264.476216940354</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182327</v>
+        <v>131.9797069770605</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>311.3485547531108</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.3162777254421</v>
+        <v>318.3162777254419</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412255</v>
+        <v>109.1464142412253</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>94.29354249150771</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>78.968852270817</v>
+        <v>81.54315117599381</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838618</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495822</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058607</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161134</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502855</v>
+        <v>159.1523370502852</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773553</v>
+        <v>174.505729022921</v>
       </c>
       <c r="V46" t="n">
-        <v>189.1100274642213</v>
+        <v>189.110027464221</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2875737849714</v>
+        <v>206.2875737849712</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6714163083603</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1177.189793764514</v>
+        <v>124.4516094083165</v>
       </c>
       <c r="C2" t="n">
-        <v>784.014292267444</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D2" t="n">
-        <v>784.014292267444</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E2" t="n">
-        <v>611.6668769506939</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F2" t="n">
-        <v>598.8128425210757</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>318.7636682303387</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
         <v>318.7636682303387</v>
@@ -4363,19 +4363,19 @@
         <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>1937.641433863169</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1937.641433863169</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W2" t="n">
-        <v>1566.642398831457</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X2" t="n">
-        <v>1177.189793764514</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1177.189793764514</v>
+        <v>524.9463551197134</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.1512011330396</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>202.9460831990289</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="X4" t="n">
-        <v>714.6796704260792</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.5676092427225</v>
+        <v>115.6004562060435</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.489511166612</v>
+        <v>805.5872737883476</v>
       </c>
       <c r="C5" t="n">
-        <v>857.3140096695423</v>
+        <v>805.5872737883476</v>
       </c>
       <c r="D5" t="n">
-        <v>471.8728808862101</v>
+        <v>805.5872737883476</v>
       </c>
       <c r="E5" t="n">
-        <v>69.28935600275456</v>
+        <v>805.5872737883476</v>
       </c>
       <c r="F5" t="n">
-        <v>56.43532157313638</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4567,19 +4567,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>91.34618151762533</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>450.3285375450872</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>943.648829263616</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M5" t="n">
-        <v>1489.649729308197</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>2017.461012945658</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
         <v>2017.461012945658</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V5" t="n">
-        <v>2199.134950018231</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W5" t="n">
-        <v>2199.134950018231</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X5" t="n">
-        <v>1809.682344951288</v>
+        <v>1206.082019499745</v>
       </c>
       <c r="Y5" t="n">
-        <v>1413.191635871889</v>
+        <v>1206.082019499745</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565973</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631995</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.4073954644657</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="C7" t="n">
-        <v>180.4073954644657</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="D7" t="n">
-        <v>180.4073954644657</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="E7" t="n">
-        <v>180.4073954644657</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="F7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>713.0409408113302</v>
+        <v>676.0147789613652</v>
       </c>
       <c r="U7" t="n">
-        <v>427.6021490532311</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="V7" t="n">
-        <v>427.6021490532311</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="W7" t="n">
-        <v>427.6021490532311</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="X7" t="n">
-        <v>193.5218268362142</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.5218268362142</v>
+        <v>390.5759872032662</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.7499273842031</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C8" t="n">
-        <v>935.7499273842031</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7499273842031</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4813,13 +4813,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4828,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1800.041093340115</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1429.042058308403</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X8" t="n">
-        <v>1039.58945324146</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y8" t="n">
-        <v>935.7499273842031</v>
+        <v>877.3701640835627</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>272.5108437565973</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>564.7236943873829</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3932923185605</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252417</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.171044252417</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D11" t="n">
-        <v>1029.670596756273</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E11" t="n">
-        <v>722.0277531600054</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F11" t="n">
-        <v>400.0739959771715</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G11" t="n">
         <v>291.2614968504365</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>1986.669951879994</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551007</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443719</v>
@@ -5193,13 +5193,13 @@
         <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5208,43 +5208,43 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1614.682968032171</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C14" t="n">
-        <v>1316.44814782229</v>
+        <v>1382.881067245904</v>
       </c>
       <c r="D14" t="n">
-        <v>1025.947700326146</v>
+        <v>1092.38061974976</v>
       </c>
       <c r="E14" t="n">
-        <v>718.3048567298792</v>
+        <v>784.7377761534929</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955918</v>
+        <v>462.784018970659</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707833</v>
+        <v>144.5619447458505</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2221.78706024859</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>1920.23703245638</v>
+        <v>1986.669951879994</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
         <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5436,7 +5436,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5469,19 +5469,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
@@ -5506,10 +5506,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5542,13 +5542,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5557,7 +5557,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5594,16 +5594,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5782,22 +5782,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C21" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D21" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1528.036762687839</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>2183.814733898398</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O21" t="n">
-        <v>2700.335016489379</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R21" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S21" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T21" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U21" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V21" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W21" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X21" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y21" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184709</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567349</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879441</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296521</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106231</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5974,7 +5974,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099314</v>
@@ -5983,7 +5983,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6016,7 +6016,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6025,7 +6025,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128481</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511122</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823213</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240293</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1614.682968032171</v>
+        <v>1480.983092530629</v>
       </c>
       <c r="C26" t="n">
-        <v>1343.834685824516</v>
+        <v>1182.748272320748</v>
       </c>
       <c r="D26" t="n">
-        <v>1053.334238328372</v>
+        <v>892.2478248246036</v>
       </c>
       <c r="E26" t="n">
-        <v>745.6913947321048</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F26" t="n">
-        <v>423.7376375492709</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G26" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6259,19 +6259,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002408</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V26" t="n">
-        <v>2497.845413993115</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W26" t="n">
-        <v>2221.78706024859</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X26" t="n">
-        <v>2221.78706024859</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y26" t="n">
-        <v>1920.23703245638</v>
+        <v>1786.537156954837</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1920.837450676059</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C28" t="n">
-        <v>1845.573014029237</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D28" t="n">
-        <v>1784.88058221894</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E28" t="n">
-        <v>1724.262451365331</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.877197865492</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.563825252126</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>1528.025955500808</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>1489.872211425075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>1553.149830557211</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>2264.558175067936</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N28" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>2796.5552996</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P28" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>2828.342304050701</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>2637.84419357979</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
-        <v>2466.805529687803</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W28" t="n">
-        <v>2278.415808906169</v>
+        <v>850.6627251852104</v>
       </c>
       <c r="X28" t="n">
-        <v>2139.27616797634</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y28" t="n">
-        <v>2011.104788080172</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.211875180718</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970837</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784258</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955919</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6493,22 +6493,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U29" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V29" t="n">
-        <v>2905.82359028062</v>
+        <v>3005.489809301069</v>
       </c>
       <c r="W29" t="n">
-        <v>2629.765236536096</v>
+        <v>2729.431455556545</v>
       </c>
       <c r="X29" t="n">
-        <v>2335.253312756342</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.703284964131</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
         <v>417.8199303082778</v>
       </c>
       <c r="D31" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
         <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
@@ -6621,22 +6621,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K31" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
         <v>711.5230842553815</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6727,7 +6727,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
@@ -6736,13 +6736,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2243.686201918056</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>2181.201444251377</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>2157.319368792988</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>2131.67017068837</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>2095.092853470224</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>2071.291039114127</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
-        <v>2069.873350433613</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2169.155977458604</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2250.991018568546</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2415.118658442346</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>2297.217483926949</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6973,16 +6973,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2280.764761165982</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2444.892401039781</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2631.183979378045</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7159,16 +7159,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7201,7 +7201,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7213,7 +7213,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M39" t="n">
-        <v>1415.392499856821</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N39" t="n">
-        <v>1949.449642343508</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O39" t="n">
-        <v>2465.969924934489</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P39" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918056</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251377</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792988</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.67017068837</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470224</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114127</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433613</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2069.873350433613</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2151.708391543555</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2321.415674025537</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2507.707252363801</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2690.89688639501</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926949</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1474.812006943204</v>
+        <v>1160.3185172936</v>
       </c>
       <c r="C41" t="n">
-        <v>1156.595620863471</v>
+        <v>842.102131213867</v>
       </c>
       <c r="D41" t="n">
-        <v>846.113607497475</v>
+        <v>531.6201178478711</v>
       </c>
       <c r="E41" t="n">
-        <v>716.556387263174</v>
+        <v>311.2430627202885</v>
       </c>
       <c r="F41" t="n">
-        <v>374.6210642104878</v>
+        <v>311.2430627202885</v>
       </c>
       <c r="G41" t="n">
-        <v>374.6210642104878</v>
+        <v>311.2430627202885</v>
       </c>
       <c r="H41" t="n">
-        <v>125.4971291943146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7444,19 +7444,19 @@
         <v>2865.860458540916</v>
       </c>
       <c r="U41" t="n">
-        <v>2685.06684439285</v>
+        <v>2685.066844392851</v>
       </c>
       <c r="V41" t="n">
-        <v>2417.919150513705</v>
+        <v>2417.919150513706</v>
       </c>
       <c r="W41" t="n">
-        <v>2121.879230899328</v>
+        <v>2121.87923089933</v>
       </c>
       <c r="X41" t="n">
-        <v>2121.879230899328</v>
+        <v>1807.385741249723</v>
       </c>
       <c r="Y41" t="n">
-        <v>1800.347637237265</v>
+        <v>1485.85414758766</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.7602991593724</v>
+        <v>401.0056439940907</v>
       </c>
       <c r="C43" t="n">
-        <v>537.7093255273913</v>
+        <v>305.7596414774163</v>
       </c>
       <c r="D43" t="n">
-        <v>457.0353278472422</v>
+        <v>225.0856437972674</v>
       </c>
       <c r="E43" t="n">
-        <v>376.4356311237808</v>
+        <v>144.4859470738062</v>
       </c>
       <c r="F43" t="n">
-        <v>294.0688117540898</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>200.7738732708715</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>120.2544376497015</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8128141272092</v>
+        <v>105.8128141272094</v>
       </c>
       <c r="K43" t="n">
-        <v>261.1152842576821</v>
+        <v>261.1152842576827</v>
       </c>
       <c r="L43" t="n">
-        <v>498.710353152013</v>
+        <v>498.7103531520138</v>
       </c>
       <c r="M43" t="n">
-        <v>758.4693605108082</v>
+        <v>758.4693605108091</v>
       </c>
       <c r="N43" t="n">
-        <v>1015.126423562549</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O43" t="n">
-        <v>1251.298619624788</v>
+        <v>1251.298619624789</v>
       </c>
       <c r="P43" t="n">
-        <v>1444.642214421898</v>
+        <v>1444.642214421899</v>
       </c>
       <c r="Q43" t="n">
-        <v>1521.53183981248</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="R43" t="n">
-        <v>1521.53183981248</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="S43" t="n">
-        <v>1393.674871412365</v>
+        <v>1393.674871412367</v>
       </c>
       <c r="T43" t="n">
-        <v>1393.674871412365</v>
+        <v>1393.674871412367</v>
       </c>
       <c r="U43" t="n">
-        <v>1393.674871412365</v>
+        <v>1183.195195071604</v>
       </c>
       <c r="V43" t="n">
-        <v>1202.654641650525</v>
+        <v>992.1749653097648</v>
       </c>
       <c r="W43" t="n">
-        <v>994.2833549990389</v>
+        <v>818.5286998337564</v>
       </c>
       <c r="X43" t="n">
-        <v>835.1621481993582</v>
+        <v>659.4074930340759</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.0092024333376</v>
+        <v>511.2545472680556</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1566.366446584818</v>
+        <v>2011.082836269682</v>
       </c>
       <c r="C44" t="n">
-        <v>1248.150060505085</v>
+        <v>1692.866450189949</v>
       </c>
       <c r="D44" t="n">
-        <v>1054.760027357835</v>
+        <v>1382.384436823953</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357835</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051485</v>
+        <v>712.8247043051479</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104878</v>
+        <v>374.6210642104874</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943146</v>
+        <v>125.4971291943144</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7678,22 +7678,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2957.414898182529</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2776.621284034464</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2509.473590155318</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2213.433670540941</v>
+        <v>2972.643549875412</v>
       </c>
       <c r="X44" t="n">
-        <v>2213.433670540941</v>
+        <v>2658.150060225805</v>
       </c>
       <c r="Y44" t="n">
-        <v>1891.902076878879</v>
+        <v>2336.618466563742</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>315.7000192537735</v>
+        <v>239.7319495904807</v>
       </c>
       <c r="C46" t="n">
-        <v>315.7000192537735</v>
+        <v>144.4859470738062</v>
       </c>
       <c r="D46" t="n">
-        <v>315.7000192537735</v>
+        <v>144.4859470738062</v>
       </c>
       <c r="E46" t="n">
-        <v>315.7000192537735</v>
+        <v>144.4859470738062</v>
       </c>
       <c r="F46" t="n">
-        <v>235.9335018085038</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>142.6385633252854</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
         <v>62.11912770411553</v>
@@ -7806,52 +7806,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8128141272092</v>
+        <v>105.8128141272094</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576821</v>
+        <v>261.1152842576826</v>
       </c>
       <c r="L46" t="n">
-        <v>498.710353152013</v>
+        <v>498.7103531520137</v>
       </c>
       <c r="M46" t="n">
-        <v>758.4693605108082</v>
+        <v>758.4693605108091</v>
       </c>
       <c r="N46" t="n">
-        <v>1015.126423562549</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O46" t="n">
-        <v>1251.298619624788</v>
+        <v>1251.298619624789</v>
       </c>
       <c r="P46" t="n">
-        <v>1444.642214421898</v>
+        <v>1444.642214421899</v>
       </c>
       <c r="Q46" t="n">
-        <v>1521.53183981248</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="R46" t="n">
-        <v>1472.589965862393</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="S46" t="n">
-        <v>1344.732997462278</v>
+        <v>1393.674871412367</v>
       </c>
       <c r="T46" t="n">
-        <v>1183.973061047848</v>
+        <v>1232.914934997938</v>
       </c>
       <c r="U46" t="n">
-        <v>973.4933847070852</v>
+        <v>1056.646521843472</v>
       </c>
       <c r="V46" t="n">
-        <v>782.4731549452455</v>
+        <v>865.6262920816325</v>
       </c>
       <c r="W46" t="n">
-        <v>574.1018682937593</v>
+        <v>657.2550054301465</v>
       </c>
       <c r="X46" t="n">
-        <v>574.1018682937593</v>
+        <v>498.1337986304659</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.9489225277387</v>
+        <v>349.9808528644456</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>417.2510275517577</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -8063,22 +8063,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N3" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>162.1578292717216</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>468.0425993879824</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,7 +8230,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>663.2434089132774</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8461,16 +8461,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>412.734320667415</v>
       </c>
       <c r="P8" t="n">
-        <v>213.6604073397399</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>317.0695349849026</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8780,16 +8780,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>663.2434089132776</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9418,7 +9418,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>351.8313913012167</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>609.629233666585</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,25 +9956,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O30" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,7 +10673,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10913,13 +10913,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>624.8237719316274</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>115.0989755892052</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11378,25 +11378,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>535.2177063841971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>145.2325565835401</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>207.3154793470927</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>253.9636180770609</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>188.1950278476835</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>27.11267262220326</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>116.5130781045872</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.6320280943876</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>216.0897016175836</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>196.0865173395002</v>
+        <v>106.1748807951511</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>338.515969822159</v>
       </c>
       <c r="G41" t="n">
-        <v>334.8216036937141</v>
+        <v>334.8216036937139</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529683</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>311.348554753111</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>55.63307859584671</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838592</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495796</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684612989</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058607</v>
+        <v>48.45245521058581</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502855</v>
+        <v>159.1523370502852</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773553</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>34.37777096372278</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>115.9210604165586</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3481653714582</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.6388952451972</v>
+        <v>90.63889524519698</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530145</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065844</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>264.4762169403538</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>161.099813441172</v>
       </c>
       <c r="X44" t="n">
-        <v>311.348554753111</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150794</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334766</v>
+        <v>79.86725770334743</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622677</v>
+        <v>79.79369975622654</v>
       </c>
       <c r="F46" t="n">
-        <v>2.574298905177045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>92.36198909838595</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495799</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613015</v>
+        <v>57.55395684612992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.45245521058584</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>33.86915055443413</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>157.529994731684</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>520937.6602042833</v>
+        <v>520937.6602042838</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>520937.6602042835</v>
+        <v>520937.6602042837</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="C2" t="n">
         <v>721328.7123734271</v>
@@ -26322,40 +26322,40 @@
         <v>721328.7123734272</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.4907329538</v>
+        <v>677904.4907329537</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329543</v>
+        <v>677904.4907329541</v>
       </c>
       <c r="G2" t="n">
+        <v>721328.7123734273</v>
+      </c>
+      <c r="H2" t="n">
         <v>721328.7123734275</v>
       </c>
-      <c r="H2" t="n">
-        <v>721328.7123734273</v>
-      </c>
       <c r="I2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734277</v>
       </c>
       <c r="J2" t="n">
-        <v>677904.4907329524</v>
+        <v>677904.4907329539</v>
       </c>
       <c r="K2" t="n">
-        <v>677904.4907329537</v>
+        <v>677904.490732954</v>
       </c>
       <c r="L2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="M2" t="n">
-        <v>721328.7123734273</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="N2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="O2" t="n">
-        <v>642966.3749704184</v>
+        <v>642966.3749704183</v>
       </c>
       <c r="P2" t="n">
-        <v>642966.3749704182</v>
+        <v>642966.3749704181</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301437</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602876</v>
+        <v>58189.91174602868</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.9212398915</v>
+        <v>46121.92123989166</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501538</v>
+        <v>1177.707664501689</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188683.972811036</v>
+        <v>188683.9728110359</v>
       </c>
       <c r="C4" t="n">
         <v>188683.9728110359</v>
@@ -26426,25 +26426,25 @@
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="F4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="I4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="J4" t="n">
         <v>135951.970348308</v>
       </c>
       <c r="K4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="L4" t="n">
         <v>160556.29099179</v>
@@ -26456,10 +26456,10 @@
         <v>160556.29099179</v>
       </c>
       <c r="O4" t="n">
-        <v>115961.6072640236</v>
+        <v>115961.6072640238</v>
       </c>
       <c r="P4" t="n">
-        <v>115961.6072640236</v>
+        <v>115961.6072640238</v>
       </c>
     </row>
     <row r="5">
@@ -26487,10 +26487,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>55112.2895089091</v>
@@ -26508,10 +26508,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040762</v>
+        <v>53449.25755040764</v>
       </c>
       <c r="P5" t="n">
-        <v>53449.25755040762</v>
+        <v>53449.25755040764</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264863.4762934732</v>
+        <v>264863.4762934728</v>
       </c>
       <c r="C6" t="n">
         <v>463059.282285218</v>
@@ -26530,40 +26530,40 @@
         <v>463059.2822852181</v>
       </c>
       <c r="E6" t="n">
-        <v>356387.2997380244</v>
+        <v>356278.7391839232</v>
       </c>
       <c r="F6" t="n">
-        <v>486840.2308757372</v>
+        <v>486731.6703216357</v>
       </c>
       <c r="G6" t="n">
-        <v>473507.6961931034</v>
+        <v>473507.6961931033</v>
       </c>
       <c r="H6" t="n">
-        <v>502602.6520661179</v>
+        <v>502602.6520661178</v>
       </c>
       <c r="I6" t="n">
         <v>502602.652066118</v>
       </c>
       <c r="J6" t="n">
-        <v>286002.7328036929</v>
+        <v>285894.1722495934</v>
       </c>
       <c r="K6" t="n">
-        <v>486840.2308757366</v>
+        <v>486731.6703216356</v>
       </c>
       <c r="L6" t="n">
-        <v>444412.7403200892</v>
+        <v>444412.7403200891</v>
       </c>
       <c r="M6" t="n">
-        <v>456480.7308262262</v>
+        <v>456480.7308262261</v>
       </c>
       <c r="N6" t="n">
-        <v>502602.6520661176</v>
+        <v>502602.6520661178</v>
       </c>
       <c r="O6" t="n">
-        <v>472377.8024914857</v>
+        <v>472181.8966479775</v>
       </c>
       <c r="P6" t="n">
-        <v>473555.510155987</v>
+        <v>473359.604312479</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304863</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253595</v>
+        <v>72.73738968253585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580626923</v>
+        <v>1.472134580627111</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304863</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>334.6331156105923</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>227.9337484710383</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.12369447580227</v>
+        <v>115.7513272609334</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27599,10 +27599,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.4146947960586</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>71.06506139226298</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.3726514463573</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27782,10 +27782,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27794,10 +27794,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>164.1320227478108</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27864,16 +27864,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>289.7246713899211</v>
+        <v>348.8995708742108</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28070,13 +28070,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>83.91153943350417</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431619</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28745,17 +28745,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -28766,10 +28766,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.01250026485148</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28958,37 +28958,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>35.71049010668966</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29195,31 +29195,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29234,37 +29234,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>28.01250026485405</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29930,31 +29930,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>35.71049010668631</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30170,28 +30170,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30273,7 +30273,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155848</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634527046</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30419,16 +30419,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316299</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316273</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
   </sheetData>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>274.1926243725203</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34783,22 +34783,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.47799132937548</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639656</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="P8" t="n">
-        <v>63.35896009881473</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>227.4725996515693</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35500,16 +35500,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>570.8562868639657</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122744</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446907</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36062,10 +36062,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.46926427500396</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835636</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>259.4442692519048</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>516.9416747776961</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>201.4959849287096</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36293,7 +36293,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36530,16 +36530,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>149.0995364028122</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835494</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O30" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37235,7 +37235,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>223.8838015594783</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37247,10 +37247,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,7 +37393,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37475,19 +37475,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37633,13 +37633,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>539.4516590774608</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37706,7 +37706,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.421497456547</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37715,16 +37715,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>22.71185353989332</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100366</v>
+        <v>44.13503679100392</v>
       </c>
       <c r="K43" t="n">
-        <v>156.8711819499727</v>
+        <v>156.871181949973</v>
       </c>
       <c r="L43" t="n">
-        <v>239.9950190851827</v>
+        <v>239.995019085183</v>
       </c>
       <c r="M43" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159549</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381215</v>
+        <v>259.2495586381218</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002418</v>
       </c>
       <c r="P43" t="n">
-        <v>195.2965604011209</v>
+        <v>195.2965604011212</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331522</v>
+        <v>77.66628827331547</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>442.5301474953082</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100366</v>
+        <v>44.13503679100389</v>
       </c>
       <c r="K46" t="n">
-        <v>156.8711819499727</v>
+        <v>156.8711819499729</v>
       </c>
       <c r="L46" t="n">
-        <v>239.9950190851827</v>
+        <v>239.9950190851829</v>
       </c>
       <c r="M46" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159549</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381215</v>
+        <v>259.2495586381218</v>
       </c>
       <c r="O46" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002418</v>
       </c>
       <c r="P46" t="n">
-        <v>195.2965604011209</v>
+        <v>195.2965604011211</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331522</v>
+        <v>77.66628827331544</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
